--- a/data/trans_orig/P04D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BA12F1-89A8-4AEA-AE3D-11C7BF89D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC321711-2710-4DD4-98C2-84F2B30A0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4E85932-177F-4C56-9211-6A73E0190888}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EFF3E18-B74C-4A79-B57C-FA80E6194027}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="633">
   <si>
     <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No dispone de calefacción</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>5,29%</t>
@@ -247,7 +247,7 @@
     <t>35,89%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,18%</t>
@@ -325,7 +325,7 @@
     <t>37,13%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,87%</t>
@@ -403,7 +403,7 @@
     <t>36,27%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -484,88 +484,169 @@
     <t>35,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
   </si>
   <si>
     <t>4,15%</t>
@@ -1039,709 +1120,823 @@
     <t>36,23%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2348,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBD0C3-48E9-4D3C-ADEC-16AA0CFE01DC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D777A74F-AF8A-4144-8D8D-39EC4DA759DA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3301,10 +3496,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>14314</v>
+        <v>8057</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>149</v>
@@ -3316,10 +3511,10 @@
         <v>151</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>43103</v>
+        <v>16813</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>152</v>
@@ -3331,10 +3526,10 @@
         <v>154</v>
       </c>
       <c r="M24" s="7">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N24" s="7">
-        <v>57417</v>
+        <v>24870</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>155</v>
@@ -3352,10 +3547,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7">
-        <v>387080</v>
+        <v>209623</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>158</v>
@@ -3367,34 +3562,34 @@
         <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>489</v>
+        <v>226</v>
       </c>
       <c r="I25" s="7">
-        <v>523606</v>
+        <v>230487</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>417</v>
+      </c>
+      <c r="N25" s="7">
+        <v>440110</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="7">
-        <v>840</v>
-      </c>
-      <c r="N25" s="7">
-        <v>910686</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3598,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7">
-        <v>158243</v>
+        <v>92106</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>101</v>
+      </c>
+      <c r="I26" s="7">
+        <v>106696</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7">
-        <v>164</v>
-      </c>
-      <c r="I26" s="7">
-        <v>176266</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>184</v>
+      </c>
+      <c r="N26" s="7">
+        <v>198802</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="7">
-        <v>303</v>
-      </c>
-      <c r="N26" s="7">
-        <v>334509</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3469,10 +3664,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3484,10 +3679,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3501,16 +3696,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>142116</v>
+        <v>6258</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>176</v>
@@ -3522,10 +3717,10 @@
         <v>178</v>
       </c>
       <c r="H28" s="7">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I28" s="7">
-        <v>159575</v>
+        <v>26290</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>179</v>
@@ -3537,10 +3732,10 @@
         <v>181</v>
       </c>
       <c r="M28" s="7">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="N28" s="7">
-        <v>301691</v>
+        <v>32547</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>182</v>
@@ -3558,10 +3753,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2020</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7">
-        <v>2156576</v>
+        <v>177457</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>185</v>
@@ -3573,10 +3768,10 @@
         <v>187</v>
       </c>
       <c r="H29" s="7">
-        <v>2118</v>
+        <v>263</v>
       </c>
       <c r="I29" s="7">
-        <v>2295187</v>
+        <v>293119</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>188</v>
@@ -3588,10 +3783,10 @@
         <v>190</v>
       </c>
       <c r="M29" s="7">
-        <v>4138</v>
+        <v>423</v>
       </c>
       <c r="N29" s="7">
-        <v>4451763</v>
+        <v>470575</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>191</v>
@@ -3609,10 +3804,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1058</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7">
-        <v>1128087</v>
+        <v>66137</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>194</v>
@@ -3624,10 +3819,10 @@
         <v>196</v>
       </c>
       <c r="H30" s="7">
-        <v>1034</v>
+        <v>63</v>
       </c>
       <c r="I30" s="7">
-        <v>1103547</v>
+        <v>69571</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>197</v>
@@ -3639,10 +3834,10 @@
         <v>199</v>
       </c>
       <c r="M30" s="7">
-        <v>2092</v>
+        <v>119</v>
       </c>
       <c r="N30" s="7">
-        <v>2231634</v>
+        <v>135707</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>200</v>
@@ -3660,63 +3855,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>131</v>
+      </c>
+      <c r="D32" s="7">
+        <v>142116</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="7">
+        <v>146</v>
+      </c>
+      <c r="I32" s="7">
+        <v>159575</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>277</v>
+      </c>
+      <c r="N32" s="7">
+        <v>301691</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2156576</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2118</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2295187</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33" s="7">
+        <v>4138</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4451763</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1128087</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1103547</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2092</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2231634</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3729,8 +4131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D3148-DAE3-4B32-BA5C-ABBD720D28EC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41171DE-E169-4895-ABED-E60EEE52C288}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3746,7 +4148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3853,13 +4255,13 @@
         <v>66337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -3868,13 +4270,13 @@
         <v>55936</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -3883,13 +4285,13 @@
         <v>122273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +4306,13 @@
         <v>216491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -3919,13 +4321,13 @@
         <v>204188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>417</v>
@@ -3934,13 +4336,13 @@
         <v>420678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,10 +4357,10 @@
         <v>136635</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>141</v>
@@ -3970,13 +4372,13 @@
         <v>135631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>265</v>
@@ -3985,13 +4387,13 @@
         <v>272266</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4461,13 @@
         <v>97375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>98</v>
@@ -4074,13 +4476,13 @@
         <v>95094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4089,13 +4491,13 @@
         <v>192469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4512,13 @@
         <v>301513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -4125,13 +4527,13 @@
         <v>275377</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>578</v>
@@ -4140,13 +4542,13 @@
         <v>576890</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,10 +4563,10 @@
         <v>191607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>120</v>
@@ -4176,13 +4578,13 @@
         <v>193073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -4191,13 +4593,13 @@
         <v>384681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4667,13 @@
         <v>89371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
@@ -4280,13 +4682,13 @@
         <v>82969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>163</v>
@@ -4295,13 +4697,13 @@
         <v>172340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4718,13 @@
         <v>357077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>344</v>
@@ -4331,13 +4733,13 @@
         <v>335951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>687</v>
@@ -4346,13 +4748,13 @@
         <v>693028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4769,13 @@
         <v>222649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -4382,13 +4784,13 @@
         <v>242467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -4397,13 +4799,13 @@
         <v>465115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4873,13 @@
         <v>102871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4486,13 +4888,13 @@
         <v>85684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -4501,13 +4903,13 @@
         <v>188555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4924,13 @@
         <v>336732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>320</v>
@@ -4537,13 +4939,13 @@
         <v>344288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>630</v>
@@ -4552,13 +4954,13 @@
         <v>681020</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4975,13 @@
         <v>206446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>204</v>
@@ -4588,13 +4990,13 @@
         <v>219105</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>388</v>
@@ -4603,13 +5005,13 @@
         <v>425550</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +5079,13 @@
         <v>79491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -4692,13 +5094,13 @@
         <v>77780</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -4707,13 +5109,13 @@
         <v>157271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +5130,13 @@
         <v>243154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4743,13 +5145,13 @@
         <v>249557</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>441</v>
@@ -4758,13 +5160,13 @@
         <v>492711</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +5181,13 @@
         <v>155273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -4794,13 +5196,13 @@
         <v>169512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4809,13 +5211,13 @@
         <v>324785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,49 +5279,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7">
-        <v>98126</v>
+        <v>54558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I24" s="7">
-        <v>117330</v>
+        <v>56341</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="N24" s="7">
-        <v>215456</v>
+        <v>110900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,49 +5330,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="D25" s="7">
-        <v>341459</v>
+        <v>186014</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
+        <v>196</v>
+      </c>
+      <c r="I25" s="7">
+        <v>206668</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I25" s="7">
-        <v>437476</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="M25" s="7">
-        <v>736</v>
+        <v>376</v>
       </c>
       <c r="N25" s="7">
-        <v>778935</v>
+        <v>392682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,49 +5381,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7">
-        <v>151743</v>
+        <v>93757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="I26" s="7">
-        <v>223124</v>
+        <v>114753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="N26" s="7">
-        <v>374868</v>
+        <v>208510</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,10 +5432,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5045,10 +5447,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5060,10 +5462,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5077,55 +5479,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>487</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
-        <v>533571</v>
+        <v>43568</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
-        <v>486</v>
+        <v>48</v>
       </c>
       <c r="I28" s="7">
-        <v>514794</v>
+        <v>60989</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
-        <v>973</v>
+        <v>98</v>
       </c>
       <c r="N28" s="7">
-        <v>1048365</v>
+        <v>104557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,49 +5536,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1737</v>
+        <v>184</v>
       </c>
       <c r="D29" s="7">
-        <v>1796426</v>
+        <v>155444</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
-        <v>1752</v>
+        <v>176</v>
       </c>
       <c r="I29" s="7">
-        <v>1846836</v>
+        <v>230808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
-        <v>3489</v>
+        <v>360</v>
       </c>
       <c r="N29" s="7">
-        <v>3643262</v>
+        <v>386253</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5587,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1007</v>
+        <v>68</v>
       </c>
       <c r="D30" s="7">
-        <v>1064353</v>
+        <v>57986</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="H30" s="7">
-        <v>1100</v>
+        <v>77</v>
       </c>
       <c r="I30" s="7">
-        <v>1182912</v>
+        <v>108372</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="M30" s="7">
-        <v>2107</v>
+        <v>145</v>
       </c>
       <c r="N30" s="7">
-        <v>2247265</v>
+        <v>166358</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,63 +5638,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>487</v>
+      </c>
+      <c r="D32" s="7">
+        <v>533571</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" s="7">
+        <v>486</v>
+      </c>
+      <c r="I32" s="7">
+        <v>514794</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M32" s="7">
+        <v>973</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1048365</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1737</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1796426</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1752</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1846836</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3489</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3643262</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1007</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1064353</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1100</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1182912</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2107</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2247265</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5305,8 +5914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FDC2EB-391D-4D38-B9B9-64C8366DCB6A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F87769-D4DF-430D-8445-3D62F25BC965}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5322,7 +5931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5426,46 +6035,46 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>38507</v>
+        <v>45973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>25396</v>
+        <v>25421</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>63903</v>
+        <v>71394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,46 +6086,46 @@
         <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>247009</v>
+        <v>249609</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
       </c>
       <c r="I5" s="7">
-        <v>241534</v>
+        <v>206330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>253</v>
       </c>
       <c r="N5" s="7">
-        <v>488543</v>
+        <v>455939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,46 +6137,46 @@
         <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>92163</v>
+        <v>104406</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>88026</v>
+        <v>81449</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
       </c>
       <c r="N6" s="7">
-        <v>180190</v>
+        <v>185854</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +6188,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5594,7 +6203,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5609,7 +6218,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5632,46 +6241,46 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>50491</v>
+        <v>53846</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>66613</v>
+        <v>118963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>98</v>
       </c>
       <c r="N8" s="7">
-        <v>117104</v>
+        <v>172808</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,46 +6292,46 @@
         <v>201</v>
       </c>
       <c r="D9" s="7">
-        <v>285062</v>
+        <v>274938</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="H9" s="7">
         <v>296</v>
       </c>
       <c r="I9" s="7">
-        <v>308604</v>
+        <v>276381</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>497</v>
       </c>
       <c r="N9" s="7">
-        <v>593666</v>
+        <v>551319</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,46 +6343,46 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>92843</v>
+        <v>94764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>123998</v>
+        <v>116749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
       </c>
       <c r="N10" s="7">
-        <v>216841</v>
+        <v>211513</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,7 +6394,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5800,7 +6409,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5815,7 +6424,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5838,46 +6447,46 @@
         <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>68378</v>
+        <v>68116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
       </c>
       <c r="I12" s="7">
-        <v>59392</v>
+        <v>57068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="M12" s="7">
         <v>171</v>
       </c>
       <c r="N12" s="7">
-        <v>127770</v>
+        <v>125183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,46 +6498,46 @@
         <v>346</v>
       </c>
       <c r="D13" s="7">
-        <v>355254</v>
+        <v>336130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>449</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>534</v>
       </c>
       <c r="I13" s="7">
-        <v>397607</v>
+        <v>389212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>880</v>
       </c>
       <c r="N13" s="7">
-        <v>752862</v>
+        <v>725342</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>454</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,46 +6549,46 @@
         <v>124</v>
       </c>
       <c r="D14" s="7">
-        <v>132570</v>
+        <v>131074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>153448</v>
+        <v>145722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>342</v>
       </c>
       <c r="N14" s="7">
-        <v>286018</v>
+        <v>276796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6600,7 @@
         <v>545</v>
       </c>
       <c r="D15" s="7">
-        <v>556202</v>
+        <v>535319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -6006,7 +6615,7 @@
         <v>848</v>
       </c>
       <c r="I15" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6021,7 +6630,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1166650</v>
+        <v>1127321</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6044,46 +6653,46 @@
         <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>72012</v>
+        <v>72234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>156</v>
       </c>
       <c r="I16" s="7">
-        <v>93386</v>
+        <v>88810</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>236</v>
       </c>
       <c r="N16" s="7">
-        <v>165398</v>
+        <v>161044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,46 +6704,46 @@
         <v>406</v>
       </c>
       <c r="D17" s="7">
-        <v>419371</v>
+        <v>393115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>689</v>
       </c>
       <c r="I17" s="7">
-        <v>462972</v>
+        <v>444742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>1095</v>
       </c>
       <c r="N17" s="7">
-        <v>882343</v>
+        <v>837858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,46 +6755,46 @@
         <v>179</v>
       </c>
       <c r="D18" s="7">
-        <v>232607</v>
+        <v>422436</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="H18" s="7">
         <v>296</v>
       </c>
       <c r="I18" s="7">
-        <v>190903</v>
+        <v>179329</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="M18" s="7">
         <v>475</v>
       </c>
       <c r="N18" s="7">
-        <v>423511</v>
+        <v>601765</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,7 +6806,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6212,7 +6821,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6227,7 +6836,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6250,46 +6859,46 @@
         <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>56886</v>
+        <v>55352</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
       </c>
       <c r="I20" s="7">
-        <v>64456</v>
+        <v>60557</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
       </c>
       <c r="N20" s="7">
-        <v>121342</v>
+        <v>115909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,46 +6910,46 @@
         <v>439</v>
       </c>
       <c r="D21" s="7">
-        <v>403968</v>
+        <v>372903</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>501</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="H21" s="7">
         <v>677</v>
       </c>
       <c r="I21" s="7">
-        <v>409383</v>
+        <v>372260</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="M21" s="7">
         <v>1116</v>
       </c>
       <c r="N21" s="7">
-        <v>813351</v>
+        <v>745163</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,46 +6961,46 @@
         <v>157</v>
       </c>
       <c r="D22" s="7">
-        <v>139303</v>
+        <v>132979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>210</v>
       </c>
       <c r="I22" s="7">
-        <v>123224</v>
+        <v>115088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
       </c>
       <c r="N22" s="7">
-        <v>262527</v>
+        <v>248067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,7 +7012,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6418,7 +7027,7 @@
         <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6433,7 +7042,7 @@
         <v>1665</v>
       </c>
       <c r="N23" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6453,49 +7062,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>69459</v>
+        <v>35525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>464</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="I24" s="7">
-        <v>102776</v>
+        <v>43734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>520</v>
+        <v>97</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N24" s="7">
-        <v>172235</v>
+        <v>79260</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,49 +7113,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>697</v>
+        <v>374</v>
       </c>
       <c r="D25" s="7">
-        <v>469021</v>
+        <v>236393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
-        <v>1213</v>
+        <v>558</v>
       </c>
       <c r="I25" s="7">
-        <v>758821</v>
+        <v>477060</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
-        <v>1910</v>
+        <v>932</v>
       </c>
       <c r="N25" s="7">
-        <v>1227842</v>
+        <v>713453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>531</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,49 +7164,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="D26" s="7">
-        <v>159274</v>
+        <v>96247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="I26" s="7">
-        <v>165040</v>
+        <v>87574</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
-        <v>566</v>
+        <v>335</v>
       </c>
       <c r="N26" s="7">
-        <v>324315</v>
+        <v>183820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,10 +7215,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6621,10 +7230,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6636,10 +7245,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6653,55 +7262,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="D28" s="7">
-        <v>355733</v>
+        <v>30426</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
-        <v>612</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7">
-        <v>412019</v>
+        <v>49273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>415</v>
+        <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
-        <v>981</v>
+        <v>130</v>
       </c>
       <c r="N28" s="7">
-        <v>767752</v>
+        <v>79699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,49 +7319,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2202</v>
+        <v>323</v>
       </c>
       <c r="D29" s="7">
-        <v>2179685</v>
+        <v>195833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
-        <v>3549</v>
+        <v>655</v>
       </c>
       <c r="I29" s="7">
-        <v>2578922</v>
+        <v>311676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
-        <v>5751</v>
+        <v>978</v>
       </c>
       <c r="N29" s="7">
-        <v>4758608</v>
+        <v>507509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,49 +7370,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>804</v>
+        <v>93</v>
       </c>
       <c r="D30" s="7">
-        <v>848760</v>
+        <v>56500</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="H30" s="7">
-        <v>1206</v>
+        <v>138</v>
       </c>
       <c r="I30" s="7">
-        <v>844640</v>
+        <v>64882</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>563</v>
+        <v>387</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="M30" s="7">
-        <v>2010</v>
+        <v>231</v>
       </c>
       <c r="N30" s="7">
-        <v>1693401</v>
+        <v>121382</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>563</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,63 +7421,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>369</v>
+      </c>
+      <c r="D32" s="7">
+        <v>361472</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H32" s="7">
+        <v>612</v>
+      </c>
+      <c r="I32" s="7">
+        <v>443825</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M32" s="7">
+        <v>981</v>
+      </c>
+      <c r="N32" s="7">
+        <v>805297</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2202</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2058920</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3549</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2477662</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5751</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4536582</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>804</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1038405</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1206</v>
+      </c>
+      <c r="I34" s="7">
+        <v>790793</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2010</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1829198</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3375</v>
       </c>
-      <c r="D31" s="7">
-        <v>3384178</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3458797</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5367</v>
       </c>
-      <c r="I31" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8742</v>
       </c>
-      <c r="N31" s="7">
-        <v>7219760</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="N35" s="7">
+        <v>7171077</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
